--- a/InputFiles/ICDC/TC13_ICDC_TCL01_FileAssociation-Study.xlsx
+++ b/InputFiles/ICDC/TC13_ICDC_TCL01_FileAssociation-Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA37CD37-0D2D-4FD2-BEC9-6C9AF9A3615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF39116-4BFB-4789-A0D4-308A5E6F93A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,8 +71,12 @@
     COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
     COUNT(DISTINCT c.case_record_id) AS "Cases",
     COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
+    CASE
+    when exists (select 1 from df_sample smp where smp.type = 'study') 
+then (select count (smp.type) from df_sample smp where smp.type = 'study' )
+else 0
+    END AS 'Case Files',
+    COUNT(DISTINCT sf.file_name) AS "Study Files"
 FROM 
     df_program p
 JOIN 
@@ -88,11 +92,11 @@
 JOIN 
     df_sample smp ON smp."case.case_record_id" = c.case_record_id
 LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id 
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
-    st.clinical_study_designation = 'TCL01' AND smp.type = 'sample';</t>
+    st.clinical_study_designation = 'TCL01' AND st.type = 'study';</t>
   </si>
   <si>
     <t>SELECT
@@ -140,7 +144,7 @@
 LEFT JOIN
     df_cohort coh ON coh."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-    st.clinical_study_designation = 'TCL01' AND smp.type = 'sample'
+    st.clinical_study_designation = 'TCL01' AND st.type = 'study'
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
@@ -180,7 +184,7 @@
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE 
-   st.clinical_study_designation = 'TCL01' AND smp.type = 'sample'
+   st.clinical_study_designation = 'TCL01' AND st.type = 'study'
 ORDER BY 
     smp.sample_id ASC
 LIMIT 100;</t>
@@ -257,7 +261,7 @@
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-    st.clinical_study_designation = 'TCL01' AND smp.type = 'sample'
+    st.clinical_study_designation = 'TCL01' AND st.type = 'study'
 ORDER BY 
     cf.file_name ASC
 LIMIT 100;</t>
@@ -315,7 +319,7 @@
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-    st.clinical_study_designation = 'TCL01' AND smp.type = 'sample'
+    st.clinical_study_designation = 'TCL01' AND st.type = 'study'
 ORDER BY 
     sf.file_name ASC
 LIMIT 100;</t>
@@ -710,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
